--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ctrl+s</t>
   </si>
@@ -60,13 +60,16 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>time snap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,7 +79,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -388,7 +398,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,13 +415,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -461,10 +471,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>60</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -472,10 +482,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -483,42 +493,50 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
         <v>2</v>
-      </c>
-      <c r="B10">
-        <v>250</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>400</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:C17">
+  <sortState ref="A2:C12">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,16 +69,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,7 +107,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,13 +464,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>60</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -533,6 +527,12 @@
       </c>
       <c r="C12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
